--- a/medicine/Soins infirmiers et profession infirmière/Plaie/Plaie.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Plaie/Plaie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plaie est une interruption de la continuité des tissus. Il y a une plaie quand la peau ou la muqueuse est éraflée, coupée ou arrachée. Outre la lésion d'organes sous-jacents qui peut se produire lors de l'accident, la plaie peut entraîner la pénétration d'agents infectieux dans un organisme ; le principal risque pathogène est alors le tétanos. Une plaie de pression ou escarre est une lésion causée par une pression non soulagée qui endommage les tissus sous-jacents.
 Une plaie grave au sens premiers secours ne l'est pas forcément au sens médical : en premiers secours, on distingue les plaies simples, qui nécessitent un simple nettoyage ou une désinfection, et les plaies graves qui nécessitent un avis médical (voir ci-dessous).
@@ -513,7 +525,9 @@
           <t>Plaie grave ou simple ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En premiers secours, une plaie simple est une petite effraction cutanée (petite coupure ou éraflure) superficielle et saignant peu, et qui n'est pas située près de l'œil ou d'un orifice naturel ; une plaie grave est caractérisée par :
 sa localisation :
@@ -558,7 +572,9 @@
           <t>Premiers secours en cas de plaie grave</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour tout accident, il convient de protéger : supprimer la source du danger, puis soustraire la victime au danger, éventuellement par un dégagement d'urgence si la victime est impotente et que le danger est réel et immédiat ; éviter si possible tout contact avec le sang de la victime (utilisation de gants, par exemple ; se laver les mains après les premiers secours).
 Faire ensuite le bilan vital de la victime. La priorité va à la survie de la victime, donc à :
@@ -599,9 +615,11 @@
           <t>Cicatrisation et rythme circadien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En raison du rythme circadien des fibroblastes, cellules de la peau mobilisées pour la cicatrisation, les plaies survenues durant la journée guérissent plus vite (environ 60% plus vite) que celles survenue durant la nuit, l'heure fixée pour une opération chirurgicale pourrait donc influer sur le temps nécessaire à se remettre d'une blessure[1]. Les protéines qui pilotent la restauration de la trame d'actine qui forme le squelette de chaque cellule ne travaillent pas avec la même intensité toute la journée[1] ; elles sont plus actives le jour que la nuit. Ceci a été observé tant sur des cultures cellulaires que sur des souris de laboratoires. La différence peut être  très importante : chez des souris des brûlures subies la nuit nécessitent en moyenne 11 jours de plus pour être bien cicatrisées que les brûlures subies dans la journée [1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison du rythme circadien des fibroblastes, cellules de la peau mobilisées pour la cicatrisation, les plaies survenues durant la journée guérissent plus vite (environ 60% plus vite) que celles survenue durant la nuit, l'heure fixée pour une opération chirurgicale pourrait donc influer sur le temps nécessaire à se remettre d'une blessure. Les protéines qui pilotent la restauration de la trame d'actine qui forme le squelette de chaque cellule ne travaillent pas avec la même intensité toute la journée ; elles sont plus actives le jour que la nuit. Ceci a été observé tant sur des cultures cellulaires que sur des souris de laboratoires. La différence peut être  très importante : chez des souris des brûlures subies la nuit nécessitent en moyenne 11 jours de plus pour être bien cicatrisées que les brûlures subies dans la journée .
 </t>
         </is>
       </c>
